--- a/outputs/second_order_ode.xlsx
+++ b/outputs/second_order_ode.xlsx
@@ -370,159 +370,159 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.1052631578947368</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="B3">
-        <v>0.1052631578947368</v>
+        <v>1.376731301939058</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.2105263157894737</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="B4">
-        <v>0.2093599650094766</v>
+        <v>1.692444042019321</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.3157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="B5">
-        <v>0.3111369941185712</v>
+        <v>1.93314541181618</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.4210526315789473</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="B6">
-        <v>0.4094665219077924</v>
+        <v>2.088167206574094</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.5263157894736842</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="B7">
-        <v>0.50325902452352</v>
+        <v>2.150638654226231</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.631578947368421</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="B8">
-        <v>0.5914752498592086</v>
+        <v>2.11779093714812</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.7368421052631579</v>
+        <v>1.473684210526316</v>
       </c>
       <c r="B9">
-        <v>0.6731377328141859</v>
+        <v>1.991079909836297</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.8421052631578947</v>
+        <v>1.684210526315789</v>
       </c>
       <c r="B10">
-        <v>0.7473416259318868</v>
+        <v>1.776121573501259</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.9473684210526315</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="B11">
-        <v>0.8132647254104532</v>
+        <v>1.482443167426553</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>1.052631578947368</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="B12">
-        <v>0.870176581394167</v>
+        <v>1.123060909055933</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>1.157894736842105</v>
+        <v>2.315789473684211</v>
       </c>
       <c r="B13">
-        <v>0.9174465916006601</v>
+        <v>0.7139030979293716</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>1.263157894736842</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="B14">
-        <v>0.9545509886038218</v>
+        <v>0.2731041522685442</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>1.368421052631579</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="B15">
-        <v>0.9810786433509855</v>
+        <v>-0.1797991325509998</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>1.473684210526316</v>
+        <v>2.947368421052631</v>
       </c>
       <c r="B16">
-        <v>0.9967356206094956</v>
+        <v>-0.6247334807477848</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>1.578947368421053</v>
+        <v>3.157894736842105</v>
       </c>
       <c r="B17">
-        <v>1.001348435866792</v>
+        <v>-1.041978810407272</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1.684210526315789</v>
+        <v>3.368421052631579</v>
       </c>
       <c r="B18">
-        <v>0.9948659775964793</v>
+        <v>-1.413042253732919</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>1.789473684210526</v>
+        <v>3.578947368421052</v>
       </c>
       <c r="B19">
-        <v>0.9773600735910253</v>
+        <v>-1.721477785535777</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1.894736842105263</v>
+        <v>3.789473684210526</v>
       </c>
       <c r="B20">
-        <v>0.9490246950859477</v>
+        <v>-1.953615132938157</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>0.9101738074940451</v>
+        <v>-2.09916566004411</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/second_order_ode.xlsx
+++ b/outputs/second_order_ode.xlsx
@@ -375,154 +375,154 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.2105263157894737</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="B3">
-        <v>1.376731301939058</v>
+        <v>1.132963988919668</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.4210526315789473</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="B4">
-        <v>1.692444042019321</v>
+        <v>1.23768233822638</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.631578947368421</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="B5">
-        <v>1.93314541181618</v>
+        <v>1.311544341150716</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.8421052631578947</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="B6">
-        <v>2.088167206574094</v>
+        <v>1.352708562716725</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1.052631578947368</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="B7">
-        <v>2.150638654226231</v>
+        <v>1.36014874809312</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1.263157894736842</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="B8">
-        <v>2.11779093714812</v>
+        <v>1.333679407893786</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1.473684210526316</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="B9">
-        <v>1.991079909836297</v>
+        <v>1.273960442566907</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>1.684210526315789</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="B10">
-        <v>1.776121573501259</v>
+        <v>1.182480690583234</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>1.894736842105263</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="B11">
-        <v>1.482443167426553</v>
+        <v>1.061520810579481</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2.105263157894737</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="B12">
-        <v>1.123060909055933</v>
+        <v>0.9140964228327496</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2.315789473684211</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="B13">
-        <v>0.7139030979293716</v>
+        <v>0.7438829275915726</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>2.526315789473684</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="B14">
-        <v>0.2731041522685442</v>
+        <v>0.5551238745988051</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2.736842105263158</v>
+        <v>2.052631578947368</v>
       </c>
       <c r="B15">
-        <v>-0.1797991325509998</v>
+        <v>0.3525251682226879</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2.947368421052631</v>
+        <v>2.210526315789473</v>
       </c>
       <c r="B16">
-        <v>-0.6247334807477848</v>
+        <v>0.1411377457412959</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>3.157894736842105</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="B17">
-        <v>-1.041978810407272</v>
+        <v>-0.07376834630151344</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>3.368421052631579</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="B18">
-        <v>-1.413042253732919</v>
+        <v>-0.2868353382980247</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>3.578947368421052</v>
+        <v>2.684210526315789</v>
       </c>
       <c r="B19">
-        <v>-1.721477785535777</v>
+        <v>-0.4927513107801806</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>3.789473684210526</v>
+        <v>2.842105263157895</v>
       </c>
       <c r="B20">
-        <v>-1.953615132938157</v>
+        <v>-0.6863826245448252</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>-2.09916566004411</v>
+        <v>-0.8629019061186016</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/second_order_ode.xlsx
+++ b/outputs/second_order_ode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,154 +375,234 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.1578947368421053</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="B3">
-        <v>1.132963988919668</v>
+        <v>1.07372175980975</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.3157894736842105</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="B4">
-        <v>1.23768233822638</v>
+        <v>1.152550400760094</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.4736842105263158</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="B5">
-        <v>1.311544341150716</v>
+        <v>1.236860850988726</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.631578947368421</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="B6">
-        <v>1.352708562716725</v>
+        <v>1.327054111447982</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.7894736842105263</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="B7">
-        <v>1.36014874809312</v>
+        <v>1.423559163162638</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.9473684210526315</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="B8">
-        <v>1.333679407893786</v>
+        <v>1.526835007567724</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1.105263157894737</v>
+        <v>0.4827586206896551</v>
       </c>
       <c r="B9">
-        <v>1.273960442566907</v>
+        <v>1.637372849630682</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>1.263157894736842</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="B10">
-        <v>1.182480690583234</v>
+        <v>1.755698434141348</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>1.421052631578947</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="B11">
-        <v>1.061520810579481</v>
+        <v>1.8823745462817</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>1.578947368421053</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="B12">
-        <v>0.9140964228327496</v>
+        <v>2.018003688368694</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>1.736842105263158</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="B13">
-        <v>0.7438829275915726</v>
+        <v>2.163230945501438</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>1.894736842105263</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="B14">
-        <v>0.5551238745988051</v>
+        <v>2.318747053742393</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2.052631578947368</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="B15">
-        <v>0.3525251682226879</v>
+        <v>2.485291685425642</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2.210526315789473</v>
+        <v>0.9655172413793103</v>
       </c>
       <c r="B16">
-        <v>0.1411377457412959</v>
+        <v>2.663656967217932</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>2.368421052631579</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="B17">
-        <v>-0.07376834630151344</v>
+        <v>2.854691247665241</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>2.526315789473684</v>
+        <v>1.103448275862069</v>
       </c>
       <c r="B18">
-        <v>-0.2868353382980247</v>
+        <v>3.059303132144251</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>2.684210526315789</v>
+        <v>1.172413793103448</v>
       </c>
       <c r="B19">
-        <v>-0.4927513107801806</v>
+        <v>3.278465804409917</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>2.842105263157895</v>
+        <v>1.241379310344828</v>
       </c>
       <c r="B20">
-        <v>-0.6863826245448252</v>
+        <v>3.513221655293466</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>3</v>
+        <v>1.310344827586207</v>
       </c>
       <c r="B21">
-        <v>-0.8629019061186016</v>
+        <v>3.764687240566044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1.379310344827586</v>
+      </c>
+      <c r="B22">
+        <v>4.034058591548806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1.448275862068966</v>
+      </c>
+      <c r="B23">
+        <v>4.322616903727996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1.517241379310345</v>
+      </c>
+      <c r="B24">
+        <v>4.631734630431455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1.586206896551724</v>
+      </c>
+      <c r="B25">
+        <v>4.962882010549571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1.655172413793103</v>
+      </c>
+      <c r="B26">
+        <v>5.317634061348066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1.724137931034483</v>
+      </c>
+      <c r="B27">
+        <v>5.697678069632164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1.793103448275862</v>
+      </c>
+      <c r="B28">
+        <v>6.10482161689192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1.862068965517241</v>
+      </c>
+      <c r="B29">
+        <v>6.541001176598249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1.931034482758621</v>
+      </c>
+      <c r="B30">
+        <v>7.008291324540479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>7.508914606012033</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/second_order_ode.xlsx
+++ b/outputs/second_order_ode.xlsx
@@ -375,234 +375,234 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.06896551724137931</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="B3">
-        <v>1.07372175980975</v>
+        <v>1.035671819262782</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.1379310344827586</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="B4">
-        <v>1.152550400760094</v>
+        <v>1.072532699167657</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.2068965517241379</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="B5">
-        <v>1.236860850988726</v>
+        <v>1.110582639714625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.2758620689655172</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="B6">
-        <v>1.327054111447982</v>
+        <v>1.149821640903686</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.3448275862068966</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="B7">
-        <v>1.423559163162638</v>
+        <v>1.190249702734839</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.4137931034482759</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="B8">
-        <v>1.526835007567724</v>
+        <v>1.231866825208086</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.4827586206896551</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="B9">
-        <v>1.637372849630682</v>
+        <v>1.274673008323424</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.5517241379310345</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="B10">
-        <v>1.755698434141348</v>
+        <v>1.318668252080856</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.6206896551724138</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="B11">
-        <v>1.8823745462817</v>
+        <v>1.36385255648038</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.6896551724137931</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="B12">
-        <v>2.018003688368694</v>
+        <v>1.410225921521997</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.7586206896551724</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="B13">
-        <v>2.163230945501438</v>
+        <v>1.457788347205707</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.8275862068965517</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="B14">
-        <v>2.318747053742393</v>
+        <v>1.50653983353151</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.896551724137931</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="B15">
-        <v>2.485291685425642</v>
+        <v>1.556480380499405</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.9655172413793103</v>
+        <v>0.4827586206896551</v>
       </c>
       <c r="B16">
-        <v>2.663656967217932</v>
+        <v>1.607609988109393</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>1.03448275862069</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="B17">
-        <v>2.854691247665241</v>
+        <v>1.659928656361474</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1.103448275862069</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="B18">
-        <v>3.059303132144251</v>
+        <v>1.713436385255648</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>1.172413793103448</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="B19">
-        <v>3.278465804409917</v>
+        <v>1.768133174791914</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1.241379310344828</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="B20">
-        <v>3.513221655293466</v>
+        <v>1.824019024970274</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>1.310344827586207</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="B21">
-        <v>3.764687240566044</v>
+        <v>1.881093935790725</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>1.379310344827586</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="B22">
-        <v>4.034058591548806</v>
+        <v>1.93935790725327</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1.448275862068966</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="B23">
-        <v>4.322616903727996</v>
+        <v>1.998810939357907</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>1.517241379310345</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="B24">
-        <v>4.631734630431455</v>
+        <v>2.059453032104638</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1.586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="B25">
-        <v>4.962882010549571</v>
+        <v>2.12128418549346</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>1.655172413793103</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="B26">
-        <v>5.317634061348066</v>
+        <v>2.184304399524376</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>1.724137931034483</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="B27">
-        <v>5.697678069632164</v>
+        <v>2.248513674197384</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>1.793103448275862</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="B28">
-        <v>6.10482161689192</v>
+        <v>2.313912009512485</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>1.862068965517241</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="B29">
-        <v>6.541001176598249</v>
+        <v>2.380499405469679</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>1.931034482758621</v>
+        <v>0.9655172413793103</v>
       </c>
       <c r="B30">
-        <v>7.008291324540479</v>
+        <v>2.448275862068966</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>7.508914606012033</v>
+        <v>2.517241379310345</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/second_order_ode.xlsx
+++ b/outputs/second_order_ode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,234 +375,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.03448275862068965</v>
+        <v>1.5</v>
       </c>
       <c r="B3">
-        <v>1.035671819262782</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.06896551724137931</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1.072532699167657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="B5">
-        <v>1.110582639714625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>0.1379310344827586</v>
-      </c>
-      <c r="B6">
-        <v>1.149821640903686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>0.1724137931034483</v>
-      </c>
-      <c r="B7">
-        <v>1.190249702734839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="B8">
-        <v>1.231866825208086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="B9">
-        <v>1.274673008323424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="B10">
-        <v>1.318668252080856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="B11">
-        <v>1.36385255648038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="B12">
-        <v>1.410225921521997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="B13">
-        <v>1.457788347205707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="B14">
-        <v>1.50653983353151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="B15">
-        <v>1.556480380499405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>0.4827586206896551</v>
-      </c>
-      <c r="B16">
-        <v>1.607609988109393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="B17">
-        <v>1.659928656361474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="B18">
-        <v>1.713436385255648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="B19">
-        <v>1.768133174791914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="B20">
-        <v>1.824019024970274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="B21">
-        <v>1.881093935790725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="B22">
-        <v>1.93935790725327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="B23">
-        <v>1.998810939357907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="B24">
-        <v>2.059453032104638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="B25">
-        <v>2.12128418549346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="B26">
-        <v>2.184304399524376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="B27">
-        <v>2.248513674197384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="B28">
-        <v>2.313912009512485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>0.9310344827586207</v>
-      </c>
-      <c r="B29">
-        <v>2.380499405469679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>0.9655172413793103</v>
-      </c>
-      <c r="B30">
-        <v>2.448275862068966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>2.517241379310345</v>
+        <v>59.3125</v>
       </c>
     </row>
   </sheetData>
